--- a/plots.xlsx
+++ b/plots.xlsx
@@ -81,10 +81,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,7 +137,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Daynamic</a:t>
+              <a:t>Dynamic</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -307,11 +307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="539421952"/>
-        <c:axId val="539423632"/>
+        <c:axId val="185410752"/>
+        <c:axId val="185411312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="539421952"/>
+        <c:axId val="185410752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,12 +424,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539423632"/>
+        <c:crossAx val="185411312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="539423632"/>
+        <c:axId val="185411312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,7 +542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539421952"/>
+        <c:crossAx val="185410752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -791,11 +791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="543171808"/>
-        <c:axId val="542940656"/>
+        <c:axId val="185413552"/>
+        <c:axId val="185414112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="543171808"/>
+        <c:axId val="185413552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,12 +908,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542940656"/>
+        <c:crossAx val="185414112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="542940656"/>
+        <c:axId val="185414112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543171808"/>
+        <c:crossAx val="185413552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1038,6 +1038,718 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Algorithm </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>denominations: [1, 5, 10, 25, 50]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="190146208"/>
+        <c:axId val="190146768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="190146208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190146768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="190146768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190146208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1155,6 +1867,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1672,6 +2424,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2244,6 +3512,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>124384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10084</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2541,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,28 +3854,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2800,28 +4098,28 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -3044,28 +4342,28 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="E33" s="2" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="E34" s="2" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -3288,28 +4586,28 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="E49" s="2" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="E49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="E50" s="2" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="E50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -3524,29 +4822,31 @@
       <c r="E61" s="1">
         <v>2010</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1">
+        <v>2.3969999999999998E-3</v>
+      </c>
       <c r="G61" s="1">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/plots.xlsx
+++ b/plots.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -76,12 +76,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,6 +222,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$4:$A$13</c:f>
@@ -307,11 +324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185410752"/>
-        <c:axId val="185411312"/>
+        <c:axId val="86859472"/>
+        <c:axId val="376619344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185410752"/>
+        <c:axId val="86859472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,12 +441,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185411312"/>
+        <c:crossAx val="376619344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185411312"/>
+        <c:axId val="376619344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,7 +559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185410752"/>
+        <c:crossAx val="86859472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -703,6 +720,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$E$4:$E$13</c:f>
@@ -791,11 +822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185413552"/>
-        <c:axId val="185414112"/>
+        <c:axId val="376621584"/>
+        <c:axId val="376622144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185413552"/>
+        <c:axId val="376621584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,12 +939,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185414112"/>
+        <c:crossAx val="376622144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185414112"/>
+        <c:axId val="376622144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185413552"/>
+        <c:crossAx val="376621584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1583,11 +1614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190146208"/>
-        <c:axId val="190146768"/>
+        <c:axId val="376626624"/>
+        <c:axId val="376754960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190146208"/>
+        <c:axId val="376626624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,12 +1675,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190146768"/>
+        <c:crossAx val="376754960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190146768"/>
+        <c:axId val="376754960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190146208"/>
+        <c:crossAx val="376626624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1750,6 +1781,3022 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Programming</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> denominations: [1, 2, 6, 12, 24, 48, 60]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.8789999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4130999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1970000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5529999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8899999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8580000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0033E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1529999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8600000000000007E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="428979856"/>
+        <c:axId val="388391456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="428979856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388391456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="388391456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428979856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Programming</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> denominations: [1, 6, 13, 37, 150]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.62E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6259999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6360000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.646E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6499999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6829999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3119999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0416E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5199999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="439703952"/>
+        <c:axId val="439704512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="439703952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439704512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="439704512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439703952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Programming</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> denominations: [1, 2, 4, 6, 8, 10, 12, 16, 18, 20, 22, 26, 28, 30]</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1849999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1950000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1979999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2019999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.206E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="432208240"/>
+        <c:axId val="432207680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="432208240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432207680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="432207680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432208240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Greedy Algorithm</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> denominations: [1, 2, 6, 12, 24, 48, 60]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$20:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.7000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9480000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3900000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.398E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3900000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3960000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.392E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.493E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3909999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4039999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="477409712"/>
+        <c:axId val="433167120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="477409712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433167120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="433167120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477409712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Greedy Algorithm</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> denominations: [1, 6, 13, 37, 150]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$36:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$36:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3909999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3909999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3869999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4870000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3930000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3969999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.395E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3930000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3969999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="471781936"/>
+        <c:axId val="433157632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="471781936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433157632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="433157632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471781936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Greedy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Algorithm</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> denominations: [1, 2, 4, 6, 8, 10, 12, 16, 18, 20, 22, 26, 28, 30]</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$52:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$52:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.392E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3900000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3879999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3900000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3930000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3939999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3960000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.395E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3969999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="471783056"/>
+        <c:axId val="471782496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="471783056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471782496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="471782496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471783056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1907,6 +4954,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2940,6 +6227,3102 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3490,15 +9873,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
+      <xdr:colOff>185698</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>90768</xdr:rowOff>
+      <xdr:rowOff>9125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
+      <xdr:colOff>521875</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>166968</xdr:rowOff>
+      <xdr:rowOff>85325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3542,6 +9925,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>387803</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17689</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>126546</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>278946</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>564696</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167367</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129268</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>172809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>415018</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>58509</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>25977</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>355022</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>98713</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>337704</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>46759</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3839,8 +10402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI39" sqref="AI39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3854,28 +10417,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4098,28 +10661,28 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -4163,7 +10726,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B21" s="1">
         <v>8.5000000000000006E-3</v>
@@ -4171,8 +10734,8 @@
       <c r="C21">
         <v>37</v>
       </c>
-      <c r="E21" s="1">
-        <v>2001</v>
+      <c r="E21" s="3">
+        <v>2002</v>
       </c>
       <c r="F21" s="1">
         <v>3.9480000000000001E-3</v>
@@ -4342,28 +10905,28 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="E33" s="3" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="E34" s="3" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="E34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -4406,8 +10969,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>2001</v>
+      <c r="A37" s="3">
+        <v>2002</v>
       </c>
       <c r="B37" s="1">
         <v>6.6259999999999999E-3</v>
@@ -4415,8 +10978,8 @@
       <c r="C37">
         <v>17</v>
       </c>
-      <c r="E37" s="1">
-        <v>2001</v>
+      <c r="E37" s="3">
+        <v>2002</v>
       </c>
       <c r="F37" s="1">
         <v>2.3909999999999999E-3</v>
@@ -4586,28 +11149,28 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="E49" s="3" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="E49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="E50" s="3" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="E50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -4634,7 +11197,7 @@
         <v>2001</v>
       </c>
       <c r="B52" s="1">
-        <v>6.62E-3</v>
+        <v>1.17E-2</v>
       </c>
       <c r="C52">
         <v>68</v>
@@ -4643,24 +11206,24 @@
         <v>2001</v>
       </c>
       <c r="F52" s="1">
-        <v>2.4849999999999998E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="G52" s="1">
         <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>2001</v>
+      <c r="A53" s="3">
+        <v>2002</v>
       </c>
       <c r="B53" s="1">
-        <v>6.6259999999999999E-3</v>
+        <v>1.18E-2</v>
       </c>
       <c r="C53">
         <v>67</v>
       </c>
-      <c r="E53" s="1">
-        <v>2001</v>
+      <c r="E53" s="3">
+        <v>2002</v>
       </c>
       <c r="F53" s="1">
         <v>2.392E-3</v>
@@ -4674,7 +11237,7 @@
         <v>2003</v>
       </c>
       <c r="B54" s="1">
-        <v>6.6360000000000004E-3</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="C54">
         <v>68</v>
@@ -4694,7 +11257,7 @@
         <v>2004</v>
       </c>
       <c r="B55" s="1">
-        <v>6.6400000000000001E-3</v>
+        <v>1.1849999999999999E-2</v>
       </c>
       <c r="C55">
         <v>67</v>
@@ -4714,7 +11277,7 @@
         <v>2005</v>
       </c>
       <c r="B56" s="1">
-        <v>6.646E-3</v>
+        <v>1.1950000000000001E-2</v>
       </c>
       <c r="C56">
         <v>68</v>
@@ -4734,7 +11297,7 @@
         <v>2006</v>
       </c>
       <c r="B57" s="1">
-        <v>6.6499999999999997E-3</v>
+        <v>1.1979999999999999E-2</v>
       </c>
       <c r="C57">
         <v>67</v>
@@ -4754,7 +11317,7 @@
         <v>2007</v>
       </c>
       <c r="B58" s="1">
-        <v>6.6829999999999997E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C58">
         <v>68</v>
@@ -4763,7 +11326,7 @@
         <v>2007</v>
       </c>
       <c r="F58" s="1">
-        <v>2.493E-3</v>
+        <v>2.3939999999999999E-3</v>
       </c>
       <c r="G58" s="1">
         <v>68</v>
@@ -4774,7 +11337,7 @@
         <v>2008</v>
       </c>
       <c r="B59" s="1">
-        <v>7.3119999999999999E-3</v>
+        <v>1.2019999999999999E-2</v>
       </c>
       <c r="C59">
         <v>67</v>
@@ -4794,7 +11357,7 @@
         <v>2009</v>
       </c>
       <c r="B60" s="1">
-        <v>1.0416E-2</v>
+        <v>1.206E-2</v>
       </c>
       <c r="C60">
         <v>68</v>
@@ -4813,9 +11376,7 @@
       <c r="A61" s="1">
         <v>2010</v>
       </c>
-      <c r="B61" s="1">
-        <v>6.5199999999999998E-3</v>
-      </c>
+      <c r="B61" s="1"/>
       <c r="C61">
         <v>67</v>
       </c>
@@ -4831,6 +11392,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A1:C1"/>
@@ -4839,14 +11408,6 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/plots.xlsx
+++ b/plots.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
   <si>
     <t>Runtime</t>
   </si>
@@ -41,6 +41,30 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>Brute Force Algorithm</t>
+  </si>
+  <si>
+    <t>denominations: [1, 2, 6, 12, 24, 48, 60]</t>
+  </si>
+  <si>
+    <t>denominations: [1, 6, 13, 37, 150]</t>
+  </si>
+  <si>
+    <t>denominations: [1, 2, 4, 6, 8, 10, 12, 16, 18, 20, 22, 26, 28, 30]</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Brute Force Times</t>
+  </si>
+  <si>
+    <t>DP Times</t>
+  </si>
+  <si>
+    <t>Greedy Times</t>
   </si>
 </sst>
 </file>
@@ -76,12 +100,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,11 +351,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86859472"/>
-        <c:axId val="376619344"/>
+        <c:axId val="381808944"/>
+        <c:axId val="381809504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86859472"/>
+        <c:axId val="381808944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,12 +468,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376619344"/>
+        <c:crossAx val="381809504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376619344"/>
+        <c:axId val="381809504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,7 +586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86859472"/>
+        <c:crossAx val="381808944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -571,6 +598,2638 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute Force Algorithm</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>denominations: [1, 5, 10, 25, 50]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$68:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3489000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.98E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3299999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="665847536"/>
+        <c:axId val="665854256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="665847536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665854256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="665854256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665847536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute Force Algorithm</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>denominations: [1, 2, 6, 12, 24, 48, 60]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$83:$A$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$83:$B$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.45E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5340000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2499999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19689999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="527744784"/>
+        <c:axId val="527741984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="527744784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527741984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="527741984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Times</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527744784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute Force Algorithm</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>denominations: [1, 6, 13, 37, 150]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$99:$A$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$99:$B$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.57E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6299999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1299999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.32E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.807E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9399999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="527743664"/>
+        <c:axId val="527745904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="527743664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527745904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="527745904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527743664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Force Algorithm</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>denominations: [1, 2, 4, 6, 8, 10, 12, 16, 18, 20, 22, 26, 28, 30]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$115:$A$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$115:$B$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57487999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="527750944"/>
+        <c:axId val="527755984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="527750944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527755984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="527755984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527750944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run Times Compared to N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24484711286089239"/>
+          <c:y val="3.9859338035084589E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5456036745406824E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.89521062992125988"/>
+          <c:h val="0.89814814814814814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force Times</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$116:$F$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$116:$G$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5716999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8848999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4399579999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP Times</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$116:$F$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$116:$H$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.0749000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8054000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1917777777777779E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy Times</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$116:$F$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$116:$I$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.1665E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3269000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3535000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="434076576"/>
+        <c:axId val="434075456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="434076576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Coin Array</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434075456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="434075456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Times</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434076576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -822,11 +3481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="376621584"/>
-        <c:axId val="376622144"/>
+        <c:axId val="381579584"/>
+        <c:axId val="381580144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="376621584"/>
+        <c:axId val="381579584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,12 +3598,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376622144"/>
+        <c:crossAx val="381580144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376622144"/>
+        <c:axId val="381580144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +3716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376621584"/>
+        <c:crossAx val="381579584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1614,11 +4273,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="376626624"/>
-        <c:axId val="376754960"/>
+        <c:axId val="429614240"/>
+        <c:axId val="429614800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="376626624"/>
+        <c:axId val="429614240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,12 +4334,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376754960"/>
+        <c:crossAx val="429614800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376754960"/>
+        <c:axId val="429614800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,7 +4396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376626624"/>
+        <c:crossAx val="429614240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2032,11 +4691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428979856"/>
-        <c:axId val="388391456"/>
+        <c:axId val="440698064"/>
+        <c:axId val="440698624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428979856"/>
+        <c:axId val="440698064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,12 +4812,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388391456"/>
+        <c:crossAx val="440698624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388391456"/>
+        <c:axId val="440698624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +4930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428979856"/>
+        <c:crossAx val="440698064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2534,11 +5193,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439703952"/>
-        <c:axId val="439704512"/>
+        <c:axId val="383543360"/>
+        <c:axId val="383543920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439703952"/>
+        <c:axId val="383543360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,12 +5310,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439704512"/>
+        <c:crossAx val="383543920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439704512"/>
+        <c:axId val="383543920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,7 +5428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439703952"/>
+        <c:crossAx val="383543360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3046,11 +5705,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432208240"/>
-        <c:axId val="432207680"/>
+        <c:axId val="383546160"/>
+        <c:axId val="383546720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432208240"/>
+        <c:axId val="383546160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,12 +5822,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432207680"/>
+        <c:crossAx val="383546720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432207680"/>
+        <c:axId val="383546720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +5940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432208240"/>
+        <c:crossAx val="383546160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3544,11 +6203,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="477409712"/>
-        <c:axId val="433167120"/>
+        <c:axId val="440353952"/>
+        <c:axId val="440354512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="477409712"/>
+        <c:axId val="440353952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,12 +6320,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433167120"/>
+        <c:crossAx val="440354512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="433167120"/>
+        <c:axId val="440354512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,7 +6438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477409712"/>
+        <c:crossAx val="440353952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4042,11 +6701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471781936"/>
-        <c:axId val="433157632"/>
+        <c:axId val="478543648"/>
+        <c:axId val="478544208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471781936"/>
+        <c:axId val="478543648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4159,12 +6818,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433157632"/>
+        <c:crossAx val="478544208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="433157632"/>
+        <c:axId val="478544208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,7 +6936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471781936"/>
+        <c:crossAx val="478543648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4550,11 +7209,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471783056"/>
-        <c:axId val="471782496"/>
+        <c:axId val="478546448"/>
+        <c:axId val="438663760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471783056"/>
+        <c:axId val="478546448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4667,12 +7326,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471782496"/>
+        <c:crossAx val="438663760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471782496"/>
+        <c:axId val="438663760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4785,7 +7444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471783056"/>
+        <c:crossAx val="478546448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4835,6 +7494,206 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5710,6 +8569,2586 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10110,6 +15549,156 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>36739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>112939</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>197302</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>145595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>483052</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>31295</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>782410</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>210910</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>31296</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129266</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>77560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>415016</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>153760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5602</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>341778</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>144555</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10400,10 +15989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI39" sqref="AI39"/>
+    <sheetView tabSelected="1" topLeftCell="B99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T110" sqref="T110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10417,28 +16006,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10661,28 +16250,28 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -10905,28 +16494,28 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="E33" s="4" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="E33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="E34" s="4" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="E34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -11149,28 +16738,28 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="E49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="E50" s="4" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="E50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -11390,8 +16979,500 @@
         <v>67</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>2</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1.5E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>5</v>
+      </c>
+      <c r="B69" s="4">
+        <v>2.4000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>10</v>
+      </c>
+      <c r="B70" s="4">
+        <v>4.3489000000000001E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>15</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1.98E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>20</v>
+      </c>
+      <c r="B72" s="4">
+        <v>9.3299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>25</v>
+      </c>
+      <c r="B73" s="4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>30</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.20415</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>40</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>45</v>
+      </c>
+      <c r="B76" s="4">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>11</v>
+      </c>
+      <c r="B83">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>12</v>
+      </c>
+      <c r="B84">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>13</v>
+      </c>
+      <c r="B85">
+        <v>5.45E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>14</v>
+      </c>
+      <c r="B86">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>15</v>
+      </c>
+      <c r="B87">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>16</v>
+      </c>
+      <c r="B88">
+        <v>2.5340000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>17</v>
+      </c>
+      <c r="B89">
+        <v>4.2299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>18</v>
+      </c>
+      <c r="B90">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>19</v>
+      </c>
+      <c r="B91">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>20</v>
+      </c>
+      <c r="B92">
+        <v>0.19689999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>16</v>
+      </c>
+      <c r="B99" s="4">
+        <v>3.57E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>17</v>
+      </c>
+      <c r="B100" s="4">
+        <v>4.6299999999999998E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>18</v>
+      </c>
+      <c r="B101" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>19</v>
+      </c>
+      <c r="B102" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>20</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1.1299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>21</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1.32E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>22</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1.807E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>23</v>
+      </c>
+      <c r="B106" s="4">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>24</v>
+      </c>
+      <c r="B107" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>25</v>
+      </c>
+      <c r="B108" s="4">
+        <v>3.9399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>16</v>
+      </c>
+      <c r="B115">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>17</v>
+      </c>
+      <c r="B116">
+        <v>0.309</v>
+      </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
+      <c r="G116">
+        <f>AVERAGE(B99:B108)</f>
+        <v>1.5716999999999999E-3</v>
+      </c>
+      <c r="H116">
+        <f>AVERAGE(B36:B45)</f>
+        <v>7.0749000000000003E-3</v>
+      </c>
+      <c r="I116">
+        <f>AVERAGE(F36:F45)</f>
+        <v>2.1665E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>18</v>
+      </c>
+      <c r="B117">
+        <v>0.57487999999999995</v>
+      </c>
+      <c r="F117">
+        <v>6</v>
+      </c>
+      <c r="G117">
+        <f>AVERAGE(B83:B92)</f>
+        <v>4.8848999999999997E-2</v>
+      </c>
+      <c r="H117">
+        <f>AVERAGE(B20:B29)</f>
+        <v>9.8054000000000006E-3</v>
+      </c>
+      <c r="I117">
+        <f>AVERAGE(F20:F29)</f>
+        <v>2.3269000000000002E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>19</v>
+      </c>
+      <c r="B118">
+        <v>1.0037</v>
+      </c>
+      <c r="F118">
+        <v>14</v>
+      </c>
+      <c r="G118">
+        <f>AVERAGE(B115:B124)</f>
+        <v>7.4399579999999998</v>
+      </c>
+      <c r="H118">
+        <f>AVERAGE(B52:B60)</f>
+        <v>1.1917777777777779E-2</v>
+      </c>
+      <c r="I118">
+        <f>AVERAGE(F52:F61)</f>
+        <v>2.3535000000000001E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>20</v>
+      </c>
+      <c r="B119">
+        <v>1.7450000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>21</v>
+      </c>
+      <c r="B120">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>22</v>
+      </c>
+      <c r="B121">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>23</v>
+      </c>
+      <c r="B122">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>24</v>
+      </c>
+      <c r="B123">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>25</v>
+      </c>
+      <c r="B124">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="24">
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="A50:C50"/>
@@ -11400,14 +17481,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/plots.xlsx
+++ b/plots.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="17">
   <si>
     <t>Runtime</t>
   </si>
@@ -100,12 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,11 +356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381808944"/>
-        <c:axId val="381809504"/>
+        <c:axId val="469811264"/>
+        <c:axId val="469811824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381808944"/>
+        <c:axId val="469811264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,12 +473,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381809504"/>
+        <c:crossAx val="469811824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381809504"/>
+        <c:axId val="469811824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381808944"/>
+        <c:crossAx val="469811264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -807,11 +812,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="665847536"/>
-        <c:axId val="665854256"/>
+        <c:axId val="699731376"/>
+        <c:axId val="699731936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="665847536"/>
+        <c:axId val="699731376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,12 +928,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665854256"/>
+        <c:crossAx val="699731936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="665854256"/>
+        <c:axId val="699731936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665847536"/>
+        <c:crossAx val="699731376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1304,11 +1309,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="527744784"/>
-        <c:axId val="527741984"/>
+        <c:axId val="699734176"/>
+        <c:axId val="478282448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="527744784"/>
+        <c:axId val="699734176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,12 +1426,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527741984"/>
+        <c:crossAx val="478282448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527741984"/>
+        <c:axId val="478282448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527744784"/>
+        <c:crossAx val="699734176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1807,11 +1812,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="527743664"/>
-        <c:axId val="527745904"/>
+        <c:axId val="478284688"/>
+        <c:axId val="478285248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="527743664"/>
+        <c:axId val="478284688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,12 +1929,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527745904"/>
+        <c:crossAx val="478285248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527745904"/>
+        <c:axId val="478285248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,7 +2047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527743664"/>
+        <c:crossAx val="478284688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2310,11 +2315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="527750944"/>
-        <c:axId val="527755984"/>
+        <c:axId val="88671936"/>
+        <c:axId val="88672496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="527750944"/>
+        <c:axId val="88671936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,12 +2432,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527755984"/>
+        <c:crossAx val="88672496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527755984"/>
+        <c:axId val="88672496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,7 +2550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527750944"/>
+        <c:crossAx val="88671936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2942,11 +2947,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="434076576"/>
-        <c:axId val="434075456"/>
+        <c:axId val="429486400"/>
+        <c:axId val="429486960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="434076576"/>
+        <c:axId val="429486400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,12 +3068,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434075456"/>
+        <c:crossAx val="429486960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434075456"/>
+        <c:axId val="429486960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,7 +3191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434076576"/>
+        <c:crossAx val="429486400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3230,6 +3235,2642 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Greedy Algorithm</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>denominations: [1, 5, 10, 25, 50]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="665836336"/>
+        <c:axId val="737816672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="665836336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737816672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="737816672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sum</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665836336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Programming</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>denominations: [1, 5, 10, 25, 50]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="441156624"/>
+        <c:axId val="441157184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="441156624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Needed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441157184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="441157184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sum</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441156624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ChangeSlow Algorithm</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>denominations: [1, 5, 10, 25, 50]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="441149904"/>
+        <c:axId val="441152704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="441149904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Needed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441152704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="441152704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sum</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441149904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3481,11 +6122,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381579584"/>
-        <c:axId val="381580144"/>
+        <c:axId val="469814064"/>
+        <c:axId val="469814624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381579584"/>
+        <c:axId val="469814064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3598,12 +6239,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381580144"/>
+        <c:crossAx val="469814624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381580144"/>
+        <c:axId val="469814624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3716,7 +6357,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381579584"/>
+        <c:crossAx val="469814064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4273,11 +6914,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429614240"/>
-        <c:axId val="429614800"/>
+        <c:axId val="469473536"/>
+        <c:axId val="469474096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429614240"/>
+        <c:axId val="469473536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4334,12 +6975,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429614800"/>
+        <c:crossAx val="469474096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429614800"/>
+        <c:axId val="469474096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4396,7 +7037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429614240"/>
+        <c:crossAx val="469473536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4691,11 +7332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="440698064"/>
-        <c:axId val="440698624"/>
+        <c:axId val="469476896"/>
+        <c:axId val="606825424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="440698064"/>
+        <c:axId val="469476896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4812,12 +7453,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440698624"/>
+        <c:crossAx val="606825424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="440698624"/>
+        <c:axId val="606825424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4930,7 +7571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440698064"/>
+        <c:crossAx val="469476896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5193,11 +7834,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="383543360"/>
-        <c:axId val="383543920"/>
+        <c:axId val="606827664"/>
+        <c:axId val="606828224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="383543360"/>
+        <c:axId val="606827664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5310,12 +7951,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383543920"/>
+        <c:crossAx val="606828224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="383543920"/>
+        <c:axId val="606828224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5428,7 +8069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383543360"/>
+        <c:crossAx val="606827664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5705,11 +8346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="383546160"/>
-        <c:axId val="383546720"/>
+        <c:axId val="374795200"/>
+        <c:axId val="374795760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="383546160"/>
+        <c:axId val="374795200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5822,12 +8463,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383546720"/>
+        <c:crossAx val="374795760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="383546720"/>
+        <c:axId val="374795760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5940,7 +8581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383546160"/>
+        <c:crossAx val="374795200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6203,11 +8844,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="440353952"/>
-        <c:axId val="440354512"/>
+        <c:axId val="476958720"/>
+        <c:axId val="476959280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="440353952"/>
+        <c:axId val="476958720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6320,12 +8961,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440354512"/>
+        <c:crossAx val="476959280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="440354512"/>
+        <c:axId val="476959280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6438,7 +9079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440353952"/>
+        <c:crossAx val="476958720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6701,11 +9342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="478543648"/>
-        <c:axId val="478544208"/>
+        <c:axId val="476961520"/>
+        <c:axId val="476962080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="478543648"/>
+        <c:axId val="476961520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6818,12 +9459,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478544208"/>
+        <c:crossAx val="476962080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478544208"/>
+        <c:axId val="476962080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6936,7 +9577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478543648"/>
+        <c:crossAx val="476961520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7209,11 +9850,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="478546448"/>
-        <c:axId val="438663760"/>
+        <c:axId val="477724048"/>
+        <c:axId val="477724608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="478546448"/>
+        <c:axId val="477724048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7326,12 +9967,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438663760"/>
+        <c:crossAx val="477724608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438663760"/>
+        <c:axId val="477724608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7444,7 +10085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478546448"/>
+        <c:crossAx val="477724048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7694,6 +10335,126 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10634,6 +13395,1554 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15702,6 +20011,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>453838</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>184897</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>364189</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>178173</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15991,8 +20402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T110" sqref="T110"/>
+    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16006,28 +20417,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -16250,28 +20661,28 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -16494,28 +20905,28 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="E33" s="5" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="E33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="E34" s="5" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="E34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -16738,28 +21149,28 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="E49" s="5" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="E49" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="E50" s="5" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="E50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -16980,18 +21391,18 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -17081,18 +21492,18 @@
       <c r="B77" s="4"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
@@ -17186,18 +21597,18 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
@@ -17294,18 +21705,18 @@
       <c r="B109" s="4"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
@@ -17457,21 +21868,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E49:G49"/>
@@ -17481,8 +21877,1045 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" activeCellId="1" sqref="A4:A13 C4:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6.3899999999999998E-3</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7.7159999999999998E-3</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2015</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5.9309999999999996E-3</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5.6099999999999998E-4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5.888E-3</v>
+      </c>
+      <c r="C7">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4.7199999999999998E-4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2030</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5.934E-3</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4.75E-4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2035</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5.9059999999999998E-3</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2035</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4.7699999999999999E-4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2040</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5.9249999999999997E-3</v>
+      </c>
+      <c r="C10">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2040</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4.7899999999999999E-4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2050</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6.5550000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2050</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4.8200000000000001E-4</v>
+      </c>
+      <c r="G11" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2080</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6.051E-3</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2080</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4.8799999999999999E-4</v>
+      </c>
+      <c r="G12" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2200</v>
+      </c>
+      <c r="B13" s="5">
+        <v>6.4130000000000003E-3</v>
+      </c>
+      <c r="C13">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2200</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5.2800000000000004E-4</v>
+      </c>
+      <c r="G13" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B20" s="5">
+        <v>8.8789999999999997E-3</v>
+      </c>
+      <c r="C20">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2001</v>
+      </c>
+      <c r="F20" s="5">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B21" s="5">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="C21">
+        <v>37</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3.9480000000000001E-3</v>
+      </c>
+      <c r="G21" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1.4130999999999999E-2</v>
+      </c>
+      <c r="C22">
+        <v>38</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2003</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B23" s="5">
+        <v>9.1970000000000003E-3</v>
+      </c>
+      <c r="C23">
+        <v>34</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2004</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2.398E-3</v>
+      </c>
+      <c r="G23" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B24" s="5">
+        <v>8.5529999999999998E-3</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2005</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="G24" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B25" s="5">
+        <v>9.8899999999999995E-3</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2006</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2.3960000000000001E-3</v>
+      </c>
+      <c r="G25" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="5">
+        <v>9.8580000000000004E-3</v>
+      </c>
+      <c r="C26">
+        <v>36</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2007</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2.392E-3</v>
+      </c>
+      <c r="G26" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1.0033E-2</v>
+      </c>
+      <c r="C27">
+        <v>36</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2.493E-3</v>
+      </c>
+      <c r="G27" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B28" s="5">
+        <v>9.1529999999999997E-3</v>
+      </c>
+      <c r="C28">
+        <v>37</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2009</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2.3909999999999999E-3</v>
+      </c>
+      <c r="G28" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B29" s="5">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2.4039999999999999E-3</v>
+      </c>
+      <c r="G29" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B36" s="5">
+        <v>6.62E-3</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2001</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3.4E-5</v>
+      </c>
+      <c r="G36" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B37" s="5">
+        <v>6.6259999999999999E-3</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2.3909999999999999E-3</v>
+      </c>
+      <c r="G37" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B38" s="5">
+        <v>6.6360000000000004E-3</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2003</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2.3909999999999999E-3</v>
+      </c>
+      <c r="G38" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B39" s="5">
+        <v>6.6400000000000001E-3</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2004</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2.3869999999999998E-3</v>
+      </c>
+      <c r="G39" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B40" s="5">
+        <v>6.646E-3</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2005</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2.4870000000000001E-3</v>
+      </c>
+      <c r="G40" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B41" s="5">
+        <v>6.6499999999999997E-3</v>
+      </c>
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2006</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2.3930000000000002E-3</v>
+      </c>
+      <c r="G41" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B42" s="5">
+        <v>6.6829999999999997E-3</v>
+      </c>
+      <c r="C42">
+        <v>17</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2007</v>
+      </c>
+      <c r="F42" s="5">
+        <v>2.3969999999999998E-3</v>
+      </c>
+      <c r="G42" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B43" s="5">
+        <v>7.3119999999999999E-3</v>
+      </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2.395E-3</v>
+      </c>
+      <c r="G43" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1.0416E-2</v>
+      </c>
+      <c r="C44">
+        <v>19</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2009</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2.3930000000000002E-3</v>
+      </c>
+      <c r="G44" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B45" s="5">
+        <v>6.5199999999999998E-3</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2.3969999999999998E-3</v>
+      </c>
+      <c r="G45" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1.17E-2</v>
+      </c>
+      <c r="C52">
+        <v>68</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2001</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="G52" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1.18E-2</v>
+      </c>
+      <c r="C53">
+        <v>67</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F53" s="5">
+        <v>2.392E-3</v>
+      </c>
+      <c r="G53" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="C54">
+        <v>68</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2003</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="G54" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1.1849999999999999E-2</v>
+      </c>
+      <c r="C55">
+        <v>67</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2004</v>
+      </c>
+      <c r="F55" s="5">
+        <v>2.3879999999999999E-3</v>
+      </c>
+      <c r="G55" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1.1950000000000001E-2</v>
+      </c>
+      <c r="C56">
+        <v>68</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2005</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="G56" s="5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1.1979999999999999E-2</v>
+      </c>
+      <c r="C57">
+        <v>67</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2006</v>
+      </c>
+      <c r="F57" s="5">
+        <v>2.3930000000000002E-3</v>
+      </c>
+      <c r="G57" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C58">
+        <v>68</v>
+      </c>
+      <c r="E58" s="5">
+        <v>2007</v>
+      </c>
+      <c r="F58" s="5">
+        <v>2.3939999999999999E-3</v>
+      </c>
+      <c r="G58" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1.2019999999999999E-2</v>
+      </c>
+      <c r="C59">
+        <v>67</v>
+      </c>
+      <c r="E59" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2.3960000000000001E-3</v>
+      </c>
+      <c r="G59" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1.206E-2</v>
+      </c>
+      <c r="C60">
+        <v>68</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2009</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2.395E-3</v>
+      </c>
+      <c r="G60" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61">
+        <v>67</v>
+      </c>
+      <c r="E61" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F61" s="5">
+        <v>2.3969999999999998E-3</v>
+      </c>
+      <c r="G61" s="5">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:G17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/plots.xlsx
+++ b/plots.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="19">
   <si>
     <t>Runtime</t>
   </si>
@@ -68,6 +69,12 @@
   <si>
     <t>Greedy Times</t>
   </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
 </sst>
 </file>
 
@@ -102,12 +109,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -356,11 +366,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469811264"/>
-        <c:axId val="469811824"/>
+        <c:axId val="451185824"/>
+        <c:axId val="451186384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469811264"/>
+        <c:axId val="451185824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,12 +483,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469811824"/>
+        <c:crossAx val="451186384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469811824"/>
+        <c:axId val="451186384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469811264"/>
+        <c:crossAx val="451185824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -812,11 +822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699731376"/>
-        <c:axId val="699731936"/>
+        <c:axId val="441143744"/>
+        <c:axId val="441145984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699731376"/>
+        <c:axId val="441143744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,12 +938,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699731936"/>
+        <c:crossAx val="441145984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699731936"/>
+        <c:axId val="441145984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699731376"/>
+        <c:crossAx val="441143744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1309,11 +1319,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699734176"/>
-        <c:axId val="478282448"/>
+        <c:axId val="441156064"/>
+        <c:axId val="441154384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699734176"/>
+        <c:axId val="441156064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,12 +1436,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478282448"/>
+        <c:crossAx val="441154384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478282448"/>
+        <c:axId val="441154384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699734176"/>
+        <c:crossAx val="441156064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1812,11 +1822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="478284688"/>
-        <c:axId val="478285248"/>
+        <c:axId val="441140944"/>
+        <c:axId val="441148784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="478284688"/>
+        <c:axId val="441140944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,12 +1939,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478285248"/>
+        <c:crossAx val="441148784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478285248"/>
+        <c:axId val="441148784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478284688"/>
+        <c:crossAx val="441140944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2315,11 +2325,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88671936"/>
-        <c:axId val="88672496"/>
+        <c:axId val="441144304"/>
+        <c:axId val="441138144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88671936"/>
+        <c:axId val="441144304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,12 +2442,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88672496"/>
+        <c:crossAx val="441138144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88672496"/>
+        <c:axId val="441138144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,7 +2560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88671936"/>
+        <c:crossAx val="441144304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2947,11 +2957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429486400"/>
-        <c:axId val="429486960"/>
+        <c:axId val="441133104"/>
+        <c:axId val="441128064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429486400"/>
+        <c:axId val="441133104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3068,12 +3078,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429486960"/>
+        <c:crossAx val="441128064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429486960"/>
+        <c:axId val="441128064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3191,7 +3201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429486400"/>
+        <c:crossAx val="441133104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3273,6 +3283,1378 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Denominations = 1, 2, 6, 12,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 24, 48, 60</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>DP and Greedy Algorithms</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$20:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="485657280"/>
+        <c:axId val="485657840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="485657280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485657840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485657840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Coins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485657280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Denominations: [1, 6, 13, 37, 150]</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Greedy Algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$36:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="485660640"/>
+        <c:axId val="485662320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="485660640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Needed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485662320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485662320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Coins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485660640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3530,11 +4912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="665836336"/>
-        <c:axId val="737816672"/>
+        <c:axId val="441142624"/>
+        <c:axId val="441139264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="665836336"/>
+        <c:axId val="441142624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3653,12 +5035,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737816672"/>
+        <c:crossAx val="441139264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="737816672"/>
+        <c:axId val="441139264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3771,7 +5153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665836336"/>
+        <c:crossAx val="441142624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3820,7 +5202,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3860,17 +5242,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -4580,11 +5952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441156624"/>
-        <c:axId val="441157184"/>
+        <c:axId val="441151024"/>
+        <c:axId val="441129184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441156624"/>
+        <c:axId val="441151024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4702,12 +6074,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441157184"/>
+        <c:crossAx val="441129184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441157184"/>
+        <c:axId val="441129184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4820,7 +6192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441156624"/>
+        <c:crossAx val="441151024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4869,7 +6241,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5619,11 +6991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441149904"/>
-        <c:axId val="441152704"/>
+        <c:axId val="665834096"/>
+        <c:axId val="665852576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441149904"/>
+        <c:axId val="665834096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5741,12 +7113,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441152704"/>
+        <c:crossAx val="665852576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441152704"/>
+        <c:axId val="665852576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5859,7 +7231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441149904"/>
+        <c:crossAx val="665834096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6122,11 +7494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469814064"/>
-        <c:axId val="469814624"/>
+        <c:axId val="451180224"/>
+        <c:axId val="451171264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469814064"/>
+        <c:axId val="451180224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6239,12 +7611,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469814624"/>
+        <c:crossAx val="451171264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469814624"/>
+        <c:axId val="451171264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6357,7 +7729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469814064"/>
+        <c:crossAx val="451180224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6369,6 +7741,2175 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>US Coin</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Denominations: Brute Force, Dynamic and Greedy all together</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$H$4:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$M$4:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="444145840"/>
+        <c:axId val="444146960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="444145840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Needed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444146960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="444146960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coins Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444145840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>denominations: [1, 2, 6, 12, 24, 48, 60]</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute Force, DP and Greedy Algorithms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$19:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$19:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$19:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$H$19:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$19:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$M$19:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="485671280"/>
+        <c:axId val="485671840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="485671280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Needed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485671840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485671840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Coins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485671280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute Force, DP and Greedy Algorithmsdenominations: [1, 6, 13, 37, 150]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$35:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$35:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$35:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$H$35:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$35:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$M$35:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="444141920"/>
+        <c:axId val="444161520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="444141920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444161520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="444161520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Coins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444141920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6914,11 +10455,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469473536"/>
-        <c:axId val="469474096"/>
+        <c:axId val="451170704"/>
+        <c:axId val="451177424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469473536"/>
+        <c:axId val="451170704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6975,12 +10516,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469474096"/>
+        <c:crossAx val="451177424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469474096"/>
+        <c:axId val="451177424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7037,7 +10578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469473536"/>
+        <c:crossAx val="451170704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7332,11 +10873,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469476896"/>
-        <c:axId val="606825424"/>
+        <c:axId val="451178544"/>
+        <c:axId val="451171824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469476896"/>
+        <c:axId val="451178544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7453,12 +10994,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606825424"/>
+        <c:crossAx val="451171824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="606825424"/>
+        <c:axId val="451171824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7571,7 +11112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469476896"/>
+        <c:crossAx val="451178544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7669,7 +11210,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7834,11 +11374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="606827664"/>
-        <c:axId val="606828224"/>
+        <c:axId val="451190304"/>
+        <c:axId val="451191424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="606827664"/>
+        <c:axId val="451190304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7884,7 +11424,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7951,12 +11490,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606828224"/>
+        <c:crossAx val="451191424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="606828224"/>
+        <c:axId val="451191424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8002,7 +11541,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8069,7 +11607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606827664"/>
+        <c:crossAx val="451190304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8173,7 +11711,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8346,11 +11883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374795200"/>
-        <c:axId val="374795760"/>
+        <c:axId val="451194224"/>
+        <c:axId val="451188624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374795200"/>
+        <c:axId val="451194224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8396,7 +11933,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8463,12 +11999,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374795760"/>
+        <c:crossAx val="451188624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374795760"/>
+        <c:axId val="451188624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8514,7 +12050,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8581,7 +12116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374795200"/>
+        <c:crossAx val="451194224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8844,11 +12379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="476958720"/>
-        <c:axId val="476959280"/>
+        <c:axId val="451189184"/>
+        <c:axId val="451188064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="476958720"/>
+        <c:axId val="451189184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8961,12 +12496,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476959280"/>
+        <c:crossAx val="451188064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="476959280"/>
+        <c:axId val="451188064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9079,7 +12614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476958720"/>
+        <c:crossAx val="451189184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9177,7 +12712,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9342,11 +12876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="476961520"/>
-        <c:axId val="476962080"/>
+        <c:axId val="451193664"/>
+        <c:axId val="451196464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="476961520"/>
+        <c:axId val="451193664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9392,7 +12926,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9459,12 +12992,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476962080"/>
+        <c:crossAx val="451196464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="476962080"/>
+        <c:axId val="451196464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9510,7 +13043,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9577,7 +13109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476961520"/>
+        <c:crossAx val="451193664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9685,7 +13217,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9850,11 +13381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="477724048"/>
-        <c:axId val="477724608"/>
+        <c:axId val="441136464"/>
+        <c:axId val="441143184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="477724048"/>
+        <c:axId val="441136464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9900,7 +13431,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9967,12 +13497,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477724608"/>
+        <c:crossAx val="441143184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="477724608"/>
+        <c:axId val="441143184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10018,7 +13548,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10085,7 +13614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477724048"/>
+        <c:crossAx val="441136464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10494,7 +14023,207 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15458,7 +19187,2587 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20008,6 +26317,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>588309</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319368</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99732</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>158002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>431427</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>43702</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20105,6 +26474,101 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20402,8 +26866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:G61"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" activeCellId="2" sqref="A36:A45 C36:C45 G36:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20417,28 +26881,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -20661,28 +27125,28 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -20905,28 +27369,28 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="E33" s="6" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="E33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="E34" s="6" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="E34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -21149,28 +27613,28 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="E49" s="6" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="E49" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="E50" s="6" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="E50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -21391,18 +27855,18 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -21492,18 +27956,18 @@
       <c r="B77" s="4"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
@@ -21597,18 +28061,18 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
@@ -21705,18 +28169,18 @@
       <c r="B109" s="4"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
@@ -21868,6 +28332,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E49:G49"/>
@@ -21877,21 +28356,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21902,36 +28366,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" activeCellId="1" sqref="A4:A13 C4:C13"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -22154,28 +28618,28 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -22398,28 +28862,28 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="E33" s="6" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="E33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="E34" s="6" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="E34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -22642,28 +29106,28 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="E49" s="6" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="E49" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="E50" s="6" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="E50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -22885,6 +29349,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="A50:C50"/>
@@ -22895,12 +29365,6 @@
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22911,11 +29375,1473 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.5E-5</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1.5E-5</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>5</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4.3489000000000001E-4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4.3489000000000001E-4</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>10</v>
+      </c>
+      <c r="L6" s="6">
+        <v>4.3489000000000001E-4</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.98E-3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.98E-3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>15</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1.98E-3</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6">
+        <v>9.3299999999999998E-3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <v>9.3299999999999998E-3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>20</v>
+      </c>
+      <c r="L8" s="6">
+        <v>9.3299999999999998E-3</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>25</v>
+      </c>
+      <c r="L9" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.20415</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.20415</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
+        <v>30</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.20415</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>35</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
+        <v>35</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>40</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6">
+        <v>40</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>45</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="6">
+        <v>45</v>
+      </c>
+      <c r="L13" s="6">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>2E-3</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>2E-3</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="K19" s="6">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <v>2E-3</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>12</v>
+      </c>
+      <c r="L20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>5.45E-3</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>5.45E-3</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="K21" s="6">
+        <v>13</v>
+      </c>
+      <c r="L21">
+        <v>5.45E-3</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="K22" s="6">
+        <v>14</v>
+      </c>
+      <c r="L22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="K23" s="6">
+        <v>15</v>
+      </c>
+      <c r="L23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>2.5340000000000001E-2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>2.5340000000000001E-2</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="K24" s="6">
+        <v>16</v>
+      </c>
+      <c r="L24">
+        <v>2.5340000000000001E-2</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="6">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="K25" s="6">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="K26" s="6">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="K27" s="6">
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="6">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="K28" s="6">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>16</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3.57E-4</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="F35" s="6">
+        <v>16</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3.57E-4</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="K35" s="6">
+        <v>16</v>
+      </c>
+      <c r="L35" s="6">
+        <v>3.57E-4</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>17</v>
+      </c>
+      <c r="B36" s="6">
+        <v>4.6299999999999998E-4</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="F36" s="6">
+        <v>17</v>
+      </c>
+      <c r="G36" s="6">
+        <v>4.6299999999999998E-4</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="K36" s="6">
+        <v>17</v>
+      </c>
+      <c r="L36" s="6">
+        <v>4.6299999999999998E-4</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>18</v>
+      </c>
+      <c r="B37" s="6">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="F37" s="6">
+        <v>18</v>
+      </c>
+      <c r="G37" s="6">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="K37" s="6">
+        <v>18</v>
+      </c>
+      <c r="L37" s="6">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>19</v>
+      </c>
+      <c r="B38" s="6">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>19</v>
+      </c>
+      <c r="G38" s="6">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="K38" s="6">
+        <v>19</v>
+      </c>
+      <c r="L38" s="6">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>20</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="F39" s="6">
+        <v>20</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="K39" s="6">
+        <v>20</v>
+      </c>
+      <c r="L39" s="6">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>21</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1.32E-3</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="F40" s="6">
+        <v>21</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1.32E-3</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="K40" s="6">
+        <v>21</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1.32E-3</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>22</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1.807E-3</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="F41" s="6">
+        <v>22</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1.807E-3</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="K41" s="6">
+        <v>22</v>
+      </c>
+      <c r="L41" s="6">
+        <v>1.807E-3</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>23</v>
+      </c>
+      <c r="B42" s="6">
+        <v>2.3E-3</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="F42" s="6">
+        <v>23</v>
+      </c>
+      <c r="G42" s="6">
+        <v>2.3E-3</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="K42" s="6">
+        <v>23</v>
+      </c>
+      <c r="L42" s="6">
+        <v>2.3E-3</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>24</v>
+      </c>
+      <c r="B43" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="F43" s="6">
+        <v>24</v>
+      </c>
+      <c r="G43" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="K43" s="6">
+        <v>24</v>
+      </c>
+      <c r="L43" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>25</v>
+      </c>
+      <c r="B44" s="6">
+        <v>3.9399999999999999E-3</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="F44" s="6">
+        <v>25</v>
+      </c>
+      <c r="G44" s="6">
+        <v>3.9399999999999999E-3</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="K44" s="6">
+        <v>25</v>
+      </c>
+      <c r="L44" s="6">
+        <v>3.9399999999999999E-3</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="F48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="K48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="F49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="K49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>16</v>
+      </c>
+      <c r="G51">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="6">
+        <v>16</v>
+      </c>
+      <c r="L51">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>0.309</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="F52" s="6">
+        <v>17</v>
+      </c>
+      <c r="G52">
+        <v>0.309</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="K52" s="6">
+        <v>17</v>
+      </c>
+      <c r="L52">
+        <v>0.309</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>0.57487999999999995</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <v>18</v>
+      </c>
+      <c r="G53">
+        <v>0.57487999999999995</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="K53" s="6">
+        <v>18</v>
+      </c>
+      <c r="L53">
+        <v>0.57487999999999995</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>1.0037</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="6">
+        <v>19</v>
+      </c>
+      <c r="G54">
+        <v>1.0037</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="K54" s="6">
+        <v>19</v>
+      </c>
+      <c r="L54">
+        <v>1.0037</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>20</v>
+      </c>
+      <c r="B55">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="6">
+        <v>20</v>
+      </c>
+      <c r="L55">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>21</v>
+      </c>
+      <c r="B56">
+        <v>3.21</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="F56" s="6">
+        <v>21</v>
+      </c>
+      <c r="G56">
+        <v>3.21</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="K56" s="6">
+        <v>21</v>
+      </c>
+      <c r="L56">
+        <v>3.21</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>5.87</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <v>22</v>
+      </c>
+      <c r="G57">
+        <v>5.87</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="K57" s="6">
+        <v>22</v>
+      </c>
+      <c r="L57">
+        <v>5.87</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <v>10.27</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="6">
+        <v>23</v>
+      </c>
+      <c r="G58">
+        <v>10.27</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="K58" s="6">
+        <v>23</v>
+      </c>
+      <c r="L58">
+        <v>10.27</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>24</v>
+      </c>
+      <c r="B59">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="6">
+        <v>24</v>
+      </c>
+      <c r="G59">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="K59" s="6">
+        <v>24</v>
+      </c>
+      <c r="L59">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>25</v>
+      </c>
+      <c r="B60">
+        <v>33</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="F60" s="6">
+        <v>25</v>
+      </c>
+      <c r="G60">
+        <v>33</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="K60" s="6">
+        <v>25</v>
+      </c>
+      <c r="L60">
+        <v>33</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/plots.xlsx
+++ b/plots.xlsx
@@ -366,11 +366,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451185824"/>
-        <c:axId val="451186384"/>
+        <c:axId val="130812976"/>
+        <c:axId val="130813536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451185824"/>
+        <c:axId val="130812976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,12 +483,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451186384"/>
+        <c:crossAx val="130813536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451186384"/>
+        <c:axId val="130813536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451185824"/>
+        <c:crossAx val="130812976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -822,11 +822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441143744"/>
-        <c:axId val="441145984"/>
+        <c:axId val="383924864"/>
+        <c:axId val="383925424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441143744"/>
+        <c:axId val="383924864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,12 +938,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441145984"/>
+        <c:crossAx val="383925424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441145984"/>
+        <c:axId val="383925424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441143744"/>
+        <c:crossAx val="383924864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1319,11 +1319,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441156064"/>
-        <c:axId val="441154384"/>
+        <c:axId val="383529344"/>
+        <c:axId val="383529904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441156064"/>
+        <c:axId val="383529344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,12 +1436,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441154384"/>
+        <c:crossAx val="383529904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441154384"/>
+        <c:axId val="383529904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441156064"/>
+        <c:crossAx val="383529344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1822,11 +1822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441140944"/>
-        <c:axId val="441148784"/>
+        <c:axId val="383532144"/>
+        <c:axId val="478555376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441140944"/>
+        <c:axId val="383532144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,12 +1939,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441148784"/>
+        <c:crossAx val="478555376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441148784"/>
+        <c:axId val="478555376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2057,7 +2057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441140944"/>
+        <c:crossAx val="383532144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2325,11 +2325,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441144304"/>
-        <c:axId val="441138144"/>
+        <c:axId val="478557616"/>
+        <c:axId val="478558176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441144304"/>
+        <c:axId val="478557616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,12 +2442,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441138144"/>
+        <c:crossAx val="478558176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441138144"/>
+        <c:axId val="478558176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441144304"/>
+        <c:crossAx val="478557616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2957,11 +2957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441133104"/>
-        <c:axId val="441128064"/>
+        <c:axId val="443765440"/>
+        <c:axId val="443766000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441133104"/>
+        <c:axId val="443765440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +3011,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3078,12 +3077,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441128064"/>
+        <c:crossAx val="443766000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441128064"/>
+        <c:axId val="443766000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,7 +3133,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3201,7 +3199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441133104"/>
+        <c:crossAx val="443765440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3215,7 +3213,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3590,11 +3587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485657280"/>
-        <c:axId val="485657840"/>
+        <c:axId val="478530320"/>
+        <c:axId val="478530880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485657280"/>
+        <c:axId val="478530320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3707,12 +3704,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485657840"/>
+        <c:crossAx val="478530880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485657840"/>
+        <c:axId val="478530880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3825,7 +3822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485657280"/>
+        <c:crossAx val="478530320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4333,11 +4330,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485660640"/>
-        <c:axId val="485662320"/>
+        <c:axId val="442663408"/>
+        <c:axId val="442663968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485660640"/>
+        <c:axId val="442663408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4455,12 +4452,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485662320"/>
+        <c:crossAx val="442663968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485662320"/>
+        <c:axId val="442663968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4573,7 +4570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485660640"/>
+        <c:crossAx val="442663408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4655,6 +4652,740 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> denominations: [1, 2, 4, 6, 8, 10, 12, 16, 18, 20, 22, 26, 28, 30] Dynamic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Vs Greedy Algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$52:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$52:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="477492752"/>
+        <c:axId val="477493312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="477492752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477493312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="477493312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Coins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477492752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4912,11 +5643,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441142624"/>
-        <c:axId val="441139264"/>
+        <c:axId val="478949152"/>
+        <c:axId val="478949712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441142624"/>
+        <c:axId val="478949152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5035,12 +5766,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441139264"/>
+        <c:crossAx val="478949712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441139264"/>
+        <c:axId val="478949712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5153,7 +5884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441142624"/>
+        <c:crossAx val="478949152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5202,7 +5933,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5952,11 +6683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441151024"/>
-        <c:axId val="441129184"/>
+        <c:axId val="439370032"/>
+        <c:axId val="439370592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441151024"/>
+        <c:axId val="439370032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6074,12 +6805,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441129184"/>
+        <c:crossAx val="439370592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441129184"/>
+        <c:axId val="439370592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6192,1046 +6923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441151024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ChangeSlow Algorithm</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>denominations: [1, 5, 10, 25, 50]</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2080</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2080</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2080</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2080</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="665834096"/>
-        <c:axId val="665852576"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="665834096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Value</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Needed</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="665852576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="665852576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Sum</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="665834096"/>
+        <c:crossAx val="439370032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7494,11 +7186,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451180224"/>
-        <c:axId val="451171264"/>
+        <c:axId val="427360432"/>
+        <c:axId val="427360992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451180224"/>
+        <c:axId val="427360432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7611,12 +7303,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451171264"/>
+        <c:crossAx val="427360992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451171264"/>
+        <c:axId val="427360992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7729,7 +7421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451180224"/>
+        <c:crossAx val="427360432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7813,13 +7505,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>US Coin</a:t>
+              <a:t>ChangeSlow Algorithm</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Denominations: Brute Force, Dynamic and Greedy all together</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>denominations: [1, 5, 10, 25, 50]</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7860,8 +7556,500 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
@@ -7884,290 +8072,139 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet4!$A$4:$A$13</c:f>
+              <c:f>Sheet2!$A$4:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>2080</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$C$4:$C$13</c:f>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$H$4:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$M$4:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8175,18 +8212,19 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="444145840"/>
-        <c:axId val="444146960"/>
+        <c:axId val="427641232"/>
+        <c:axId val="427641792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="444145840"/>
+        <c:axId val="427641232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8304,12 +8342,705 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444146960"/>
+        <c:crossAx val="427641792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="444146960"/>
+        <c:axId val="427641792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sum</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427641232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>US Coin</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Denominations: Brute Force, Dynamic and Greedy all together</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$H$4:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$M$4:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381537392"/>
+        <c:axId val="381537952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381537392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Needed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381537952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="381537952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8422,7 +9153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444145840"/>
+        <c:crossAx val="381537392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8503,7 +9234,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8911,11 +9642,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485671280"/>
-        <c:axId val="485671840"/>
+        <c:axId val="664706192"/>
+        <c:axId val="664706752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485671280"/>
+        <c:axId val="664706192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9033,12 +9764,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485671840"/>
+        <c:crossAx val="664706752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485671840"/>
+        <c:axId val="664706752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9151,7 +9882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485671280"/>
+        <c:crossAx val="664706192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9232,7 +9963,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9631,11 +10362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="444141920"/>
-        <c:axId val="444161520"/>
+        <c:axId val="429553216"/>
+        <c:axId val="429553776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="444141920"/>
+        <c:axId val="429553216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9748,12 +10479,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444161520"/>
+        <c:crossAx val="429553776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="444161520"/>
+        <c:axId val="429553776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9866,7 +10597,916 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444141920"/>
+        <c:crossAx val="429553216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>denominations: [1, 2, 4, 6, 8, 10, 12, 16, 18, 20, 22, 26, 28, 30]</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Dynamic, Greedy and Brute Force algorithms</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$51:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$51:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$51:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$H$51:$H$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$51:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$M$51:$M$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="433206240"/>
+        <c:axId val="433206800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="433206240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value Needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433206800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="433206800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Coins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433206240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10455,11 +12095,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451170704"/>
-        <c:axId val="451177424"/>
+        <c:axId val="431219232"/>
+        <c:axId val="431219792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451170704"/>
+        <c:axId val="431219232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10516,12 +12156,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451177424"/>
+        <c:crossAx val="431219792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451177424"/>
+        <c:axId val="431219792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10578,7 +12218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451170704"/>
+        <c:crossAx val="431219232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10873,11 +12513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451178544"/>
-        <c:axId val="451171824"/>
+        <c:axId val="128197280"/>
+        <c:axId val="128197840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451178544"/>
+        <c:axId val="128197280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10994,12 +12634,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451171824"/>
+        <c:crossAx val="128197840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451171824"/>
+        <c:axId val="128197840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11112,7 +12752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451178544"/>
+        <c:crossAx val="128197280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11210,6 +12850,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11374,11 +13015,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451190304"/>
-        <c:axId val="451191424"/>
+        <c:axId val="128200080"/>
+        <c:axId val="384499648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451190304"/>
+        <c:axId val="128200080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11424,6 +13065,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11490,12 +13132,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451191424"/>
+        <c:crossAx val="384499648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451191424"/>
+        <c:axId val="384499648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11541,6 +13183,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11607,7 +13250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451190304"/>
+        <c:crossAx val="128200080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11870,6 +13513,9 @@
                 <c:pt idx="8">
                   <c:v>1.206E-2</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.21E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11883,11 +13529,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451194224"/>
-        <c:axId val="451188624"/>
+        <c:axId val="384501888"/>
+        <c:axId val="384502448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451194224"/>
+        <c:axId val="384501888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11999,12 +13645,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451188624"/>
+        <c:crossAx val="384502448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451188624"/>
+        <c:axId val="384502448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12116,7 +13762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451194224"/>
+        <c:crossAx val="384501888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12379,11 +14025,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451189184"/>
-        <c:axId val="451188064"/>
+        <c:axId val="433774672"/>
+        <c:axId val="433775232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451189184"/>
+        <c:axId val="433774672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12496,12 +14142,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451188064"/>
+        <c:crossAx val="433775232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451188064"/>
+        <c:axId val="433775232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12614,7 +14260,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451189184"/>
+        <c:crossAx val="433774672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12712,6 +14358,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12876,11 +14523,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451193664"/>
-        <c:axId val="451196464"/>
+        <c:axId val="379852752"/>
+        <c:axId val="379853312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451193664"/>
+        <c:axId val="379852752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12926,6 +14573,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12992,12 +14640,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451196464"/>
+        <c:crossAx val="379853312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451196464"/>
+        <c:axId val="379853312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13043,6 +14691,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13109,7 +14758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451193664"/>
+        <c:crossAx val="379852752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13381,11 +15030,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441136464"/>
-        <c:axId val="441143184"/>
+        <c:axId val="379855552"/>
+        <c:axId val="379856112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441136464"/>
+        <c:axId val="379855552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13497,12 +15146,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441143184"/>
+        <c:crossAx val="379856112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441143184"/>
+        <c:axId val="379856112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13614,7 +15263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441136464"/>
+        <c:crossAx val="379855552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14263,6 +15912,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -21768,6 +23497,1038 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26377,6 +29138,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>135590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>21290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26574,6 +29365,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26866,8 +29687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G36" activeCellId="2" sqref="A36:A45 C36:C45 G36:G45"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27840,7 +30661,9 @@
       <c r="A61" s="1">
         <v>2010</v>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1">
+        <v>1.21E-2</v>
+      </c>
       <c r="C61">
         <v>67</v>
       </c>
@@ -28332,21 +31155,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E49:G49"/>
@@ -28356,6 +31164,21 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28366,7 +31189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -29349,12 +32172,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="A50:C50"/>
@@ -29365,6 +32182,12 @@
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29388,8 +32211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M51" activeCellId="3" sqref="A51:A60 C51:C60 H51:H60 M51:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30816,14 +33639,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="F1:H1"/>
@@ -30840,6 +33655,14 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:C33"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
